--- a/scalpel/typeinfer/evaluation/evaluation_outputs/tqdm__tqdm.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/tqdm__tqdm.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +704,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'callable', 'NoneType'}</t>
+          <t>{'any', 'NoneType', 'callable'}</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4678,14 +4678,28 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr"/>
       <c r="B133" s="2" t="inlineStr"/>
-      <c r="C133" s="2" t="inlineStr"/>
-      <c r="D133" s="2" t="inlineStr"/>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>1525</v>
+      </c>
+      <c r="E133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr"/>
+      <c r="B134" s="2" t="inlineStr"/>
+      <c r="C134" s="2" t="inlineStr"/>
+      <c r="D134" s="2" t="inlineStr"/>
+      <c r="E134" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F133" s="2" t="n">
+      <c r="F134" s="2" t="n">
         <v>375</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/tqdm__tqdm.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/tqdm__tqdm.xlsx
@@ -768,7 +768,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[None]', 'Tuple[NoneType]'}</t>
+          <t>{'Tuple[NoneType]', 'Tuple[None]'}</t>
         </is>
       </c>
       <c r="F10" s="5" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Tuple[None]</t>
+          <t>Tuple[NoneType]</t>
         </is>
       </c>
       <c r="F11" s="5" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>{'Tuple[NoneType]', 'list'}</t>
+          <t>{'list', 'Tuple[NoneType]'}</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Tuple[NoneType]</t>
+          <t>list</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'callable'}</t>
+          <t>{'callable', 'any'}</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>any</t>
+          <t>callable</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -4678,16 +4678,16 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr"/>
       <c r="B133" s="2" t="inlineStr"/>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr"/>
+      <c r="D133" s="2" t="inlineStr"/>
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
-        <v>1525</v>
-      </c>
-      <c r="E133" s="2" t="inlineStr"/>
-      <c r="F133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="n">
+        <v>93.84999999999999</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr"/>
@@ -4696,7 +4696,7 @@
       <c r="D134" s="2" t="inlineStr"/>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F134" s="2" t="n">
